--- a/Doc/Лист Microsoft Excel.xlsx
+++ b/Doc/Лист Microsoft Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Вячеслав\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\TestTask\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DF0151-AA77-464D-A92D-33E85A6FD72F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1034A8AC-F35F-4B21-B5B5-17BDEB7B9040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>t</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>uin</t>
+  </si>
+  <si>
+    <t>dADC</t>
+  </si>
+  <si>
+    <t>ср по dADC</t>
   </si>
 </sst>
 </file>
@@ -102,6 +108,1244 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$2:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>3136.9259744513588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3098.9889088874838</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3060.2819890842929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3020.8452902447343</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2980.7142857142858</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2939.8844884488444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2898.436285538965</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2856.4179420482724</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2813.8311485154709</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2770.7001487613993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2727.0817744521646</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2683.0770954728819</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2638.6375275624155</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2593.9002932551321</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2548.8417972437228</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2503.5344526058066</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2458.0476495043172</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2412.3768336278094</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2366.641413075592</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2320.813439625666</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2275</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2229.2263531984695</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2183.5030107828038</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2138.010752688172</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2092.6529265072613</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2047.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2002.6184150017884</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1958.0694567656421</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1913.7919463087248</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1869.9402303846987</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1826.4276217384079</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1783.3996613039797</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1740.8752515090546</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1698.8619075482741</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1657.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1616.486502844692</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1576.2400049206544</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1536.4245548266167</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1497.3090586145649</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1458.8470451911937</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1421.1508325171401</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1383.9771598808341</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1347.5997987252601</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1311.9362511893435</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1276.8870002064555</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1242.3354231974922</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1208.9615194869266</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1176.046403877682</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1143.8613433266071</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1112.4799708667153</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1081.5332254028992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5494-4B47-86DF-130A0185F593}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1396090895"/>
+        <c:axId val="1246201631"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1396090895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1246201631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1246201631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3140"/>
+          <c:min val="1080"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1396090895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8077C9B5-C850-4DE6-AA02-73E92DBB3CAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,11 +1613,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -388,6 +1635,9 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
@@ -432,6 +1682,10 @@
         <f t="shared" ref="D3:D52" si="1">C3*4095/$G$2</f>
         <v>3098.9889088874838</v>
       </c>
+      <c r="E3" s="1">
+        <f>D2-D3</f>
+        <v>37.937065563874967</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -448,6 +1702,10 @@
         <f t="shared" si="1"/>
         <v>3060.2819890842929</v>
       </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E52" si="2">D3-D4</f>
+        <v>38.706919803190885</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -464,6 +1722,10 @@
         <f t="shared" si="1"/>
         <v>3020.8452902447343</v>
       </c>
+      <c r="E5" s="1">
+        <f t="shared" si="2"/>
+        <v>39.43669883955863</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -480,6 +1742,13 @@
         <f t="shared" si="1"/>
         <v>2980.7142857142858</v>
       </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>40.131004530448536</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -496,6 +1765,14 @@
         <f t="shared" si="1"/>
         <v>2939.8844884488444</v>
       </c>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>40.829797265441357</v>
+      </c>
+      <c r="F7" s="1">
+        <f>AVERAGE($E$3:$E$52)</f>
+        <v>41.107854980969186</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -512,6 +1789,10 @@
         <f t="shared" si="1"/>
         <v>2898.436285538965</v>
       </c>
+      <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>41.448202909879456</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -528,6 +1809,10 @@
         <f t="shared" si="1"/>
         <v>2856.4179420482724</v>
       </c>
+      <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>42.018343490692587</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -544,6 +1829,10 @@
         <f t="shared" si="1"/>
         <v>2813.8311485154709</v>
       </c>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>42.586793532801494</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -560,6 +1849,10 @@
         <f t="shared" si="1"/>
         <v>2770.7001487613993</v>
       </c>
+      <c r="E11" s="1">
+        <f t="shared" si="2"/>
+        <v>43.130999754071581</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -576,6 +1869,10 @@
         <f t="shared" si="1"/>
         <v>2727.0817744521646</v>
       </c>
+      <c r="E12" s="1">
+        <f t="shared" si="2"/>
+        <v>43.618374309234696</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -592,6 +1889,10 @@
         <f t="shared" si="1"/>
         <v>2683.0770954728819</v>
       </c>
+      <c r="E13" s="1">
+        <f t="shared" si="2"/>
+        <v>44.004678979282744</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -608,6 +1909,10 @@
         <f t="shared" si="1"/>
         <v>2638.6375275624155</v>
       </c>
+      <c r="E14" s="1">
+        <f t="shared" si="2"/>
+        <v>44.439567910466394</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -624,6 +1929,10 @@
         <f t="shared" si="1"/>
         <v>2593.9002932551321</v>
       </c>
+      <c r="E15" s="1">
+        <f t="shared" si="2"/>
+        <v>44.737234307283416</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -640,8 +1949,12 @@
         <f t="shared" si="1"/>
         <v>2548.8417972437228</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>45.058496011409261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -656,8 +1969,12 @@
         <f t="shared" si="1"/>
         <v>2503.5344526058066</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <f t="shared" si="2"/>
+        <v>45.307344637916231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -672,8 +1989,12 @@
         <f t="shared" si="1"/>
         <v>2458.0476495043172</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
+        <v>45.486803101489386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -688,8 +2009,12 @@
         <f t="shared" si="1"/>
         <v>2412.3768336278094</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>45.670815876507731</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -704,8 +2029,12 @@
         <f t="shared" si="1"/>
         <v>2366.641413075592</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <f t="shared" si="2"/>
+        <v>45.73542055221742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -720,8 +2049,12 @@
         <f t="shared" si="1"/>
         <v>2320.813439625666</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <f t="shared" si="2"/>
+        <v>45.827973449926048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -736,8 +2069,12 @@
         <f t="shared" si="1"/>
         <v>2275</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <f t="shared" si="2"/>
+        <v>45.813439625665978</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -752,8 +2089,12 @@
         <f t="shared" si="1"/>
         <v>2229.2263531984695</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1">
+        <f t="shared" si="2"/>
+        <v>45.773646801530504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -768,8 +2109,12 @@
         <f t="shared" si="1"/>
         <v>2183.5030107828038</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <f t="shared" si="2"/>
+        <v>45.723342415665684</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -784,8 +2129,12 @@
         <f t="shared" si="1"/>
         <v>2138.010752688172</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <f t="shared" si="2"/>
+        <v>45.492258094631779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -800,8 +2149,12 @@
         <f t="shared" si="1"/>
         <v>2092.6529265072613</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1">
+        <f t="shared" si="2"/>
+        <v>45.357826180910706</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -816,8 +2169,12 @@
         <f t="shared" si="1"/>
         <v>2047.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1">
+        <f t="shared" si="2"/>
+        <v>45.152926507261327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -832,8 +2189,12 @@
         <f t="shared" si="1"/>
         <v>2002.6184150017884</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1">
+        <f t="shared" si="2"/>
+        <v>44.881584998211565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -848,8 +2209,12 @@
         <f t="shared" si="1"/>
         <v>1958.0694567656421</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1">
+        <f t="shared" si="2"/>
+        <v>44.548958236146291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -864,24 +2229,32 @@
         <f t="shared" si="1"/>
         <v>1913.7919463087248</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1">
+        <f t="shared" si="2"/>
+        <v>44.277510456917298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7404</v>
+        <v>8404</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>1.4038841645598712</v>
+        <v>1.5069115409693543</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
-        <v>1742.0926223856584</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1869.9402303846987</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="2"/>
+        <v>43.851715924026166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -896,8 +2269,12 @@
         <f t="shared" si="1"/>
         <v>1826.4276217384079</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1">
+        <f t="shared" si="2"/>
+        <v>43.512608646290801</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -912,8 +2289,12 @@
         <f t="shared" si="1"/>
         <v>1783.3996613039797</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
+        <f t="shared" si="2"/>
+        <v>43.027960434428223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -928,8 +2309,12 @@
         <f t="shared" si="1"/>
         <v>1740.8752515090546</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1">
+        <f t="shared" si="2"/>
+        <v>42.524409794925077</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -944,8 +2329,12 @@
         <f t="shared" si="1"/>
         <v>1698.8619075482741</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1">
+        <f t="shared" si="2"/>
+        <v>42.013343960780503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -960,8 +2349,12 @@
         <f t="shared" si="1"/>
         <v>1657.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1">
+        <f t="shared" si="2"/>
+        <v>41.361907548274075</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -976,8 +2369,12 @@
         <f t="shared" si="1"/>
         <v>1616.486502844692</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1">
+        <f t="shared" si="2"/>
+        <v>41.013497155307959</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -992,8 +2389,12 @@
         <f t="shared" si="1"/>
         <v>1576.2400049206544</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1">
+        <f t="shared" si="2"/>
+        <v>40.246497924037612</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1008,8 +2409,12 @@
         <f t="shared" si="1"/>
         <v>1536.4245548266167</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1">
+        <f t="shared" si="2"/>
+        <v>39.815450094037715</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1024,8 +2429,12 @@
         <f t="shared" si="1"/>
         <v>1497.3090586145649</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1">
+        <f t="shared" si="2"/>
+        <v>39.115496212051767</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1040,8 +2449,12 @@
         <f t="shared" si="1"/>
         <v>1458.8470451911937</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1">
+        <f t="shared" si="2"/>
+        <v>38.462013423371218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1056,8 +2469,12 @@
         <f t="shared" si="1"/>
         <v>1421.1508325171401</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1">
+        <f t="shared" si="2"/>
+        <v>37.696212674053641</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1072,8 +2489,12 @@
         <f t="shared" si="1"/>
         <v>1383.9771598808341</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1">
+        <f t="shared" si="2"/>
+        <v>37.173672636306037</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1088,8 +2509,12 @@
         <f t="shared" si="1"/>
         <v>1347.5997987252601</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1">
+        <f t="shared" si="2"/>
+        <v>36.377361155573908</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1104,8 +2529,12 @@
         <f t="shared" si="1"/>
         <v>1311.9362511893435</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1">
+        <f t="shared" si="2"/>
+        <v>35.663547535916678</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1120,8 +2549,12 @@
         <f t="shared" si="1"/>
         <v>1276.8870002064555</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1">
+        <f t="shared" si="2"/>
+        <v>35.049250982887997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1136,8 +2569,12 @@
         <f t="shared" si="1"/>
         <v>1242.3354231974922</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1">
+        <f t="shared" si="2"/>
+        <v>34.55157700896325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1152,8 +2589,12 @@
         <f t="shared" si="1"/>
         <v>1208.9615194869266</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1">
+        <f t="shared" si="2"/>
+        <v>33.373903710565628</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1168,8 +2609,12 @@
         <f t="shared" si="1"/>
         <v>1176.046403877682</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1">
+        <f t="shared" si="2"/>
+        <v>32.915115609244594</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1184,8 +2629,12 @@
         <f t="shared" si="1"/>
         <v>1143.8613433266071</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="1">
+        <f t="shared" si="2"/>
+        <v>32.185060551074912</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1200,8 +2649,12 @@
         <f t="shared" si="1"/>
         <v>1112.4799708667153</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="1">
+        <f t="shared" si="2"/>
+        <v>31.381372459891736</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1215,10 +2668,15 @@
       <c r="D52" s="1">
         <f t="shared" si="1"/>
         <v>1081.5332254028992</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="2"/>
+        <v>30.946745463816114</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>